--- a/datas/GlobalConfig.xlsx
+++ b/datas/GlobalConfig.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,32 +434,56 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>##group</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>##</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr"/>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>描述</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>具体参数</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>team_max_members</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>组队人数上限</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>team_max_members</t>
+          <t>team_invite_max_count</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -469,17 +493,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>队伍最大成员数</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>5</v>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>同时邀请组队人数上限</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>team_invite_max_count</t>
+          <t>team_invite_expire_time</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -489,53 +518,41 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>队伍邀请最大次数</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>10</v>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>邀请组队过期时间（秒）</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>team_invite_expire_time</t>
+          <t>enable_cross_server_team</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>bool</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>队伍邀请过期时间（秒）</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>enable_cross_server_team</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>bool</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>是否启用跨服组队</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>是否开启跨服组队</t>
+        </is>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
